--- a/code/temperature_data.xlsx
+++ b/code/temperature_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,281 +448,91 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-04-16 10:08:37</t>
+          <t>1970-01-01 00:00:10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26.437</v>
+        <v>31.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-04-16 10:08:50</t>
+          <t>1970-01-01 00:00:11</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.5</v>
+        <v>32.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-04-16 10:09:00</t>
+          <t>1970-01-01 00:00:13</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26.5</v>
+        <v>32.6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-04-16 10:09:11</t>
+          <t>1970-01-01 00:00:14</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>27.625</v>
+        <v>31.6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-04-16 10:09:22</t>
+          <t>1970-01-01 00:00:15</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31.437</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-04-16 10:09:33</t>
+          <t>1970-01-01 00:00:16</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.375</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-04-16 10:09:45</t>
+          <t>1970-01-01 00:00:17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33.5</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-04-16 10:09:55</t>
+          <t>1970-01-01 00:00:18</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>33</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-04-16 10:10:06</t>
+          <t>1970-01-01 00:00:19</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>32.5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2024-04-16 10:10:17</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2024-04-16 10:10:28</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>31.625</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2024-04-16 10:10:39</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>31.25</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2024-04-16 10:10:50</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>30.875</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2024-04-16 10:11:01</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>30.5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2024-04-16 10:11:12</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>30.312</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2024-04-17 19:56:14</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>26.812</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2024-04-17 19:56:29</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>26.875</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2024-04-17 19:56:40</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>26.875</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2024-04-17 19:56:51</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>26.875</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2024-04-17 19:57:02</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>26.875</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2024-04-17 19:57:13</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>26.875</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2024-04-17 19:57:24</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>26.812</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2024-04-17 19:57:34</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>26.875</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2024-04-17 19:57:45</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>26.875</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2024-04-17 19:57:56</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>26.937</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2024-04-17 19:58:07</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>26.875</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2024-04-17 19:58:18</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>26.875</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2024-04-17 19:58:29</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>26.875</v>
+        <v>31.9</v>
       </c>
     </row>
   </sheetData>
